--- a/domain4.xlsx
+++ b/domain4.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="875">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="882">
   <si>
     <t>nsclick.baidu.com</t>
   </si>
@@ -2644,6 +2644,27 @@
   </si>
   <si>
     <t>content.audiocn.org</t>
+  </si>
+  <si>
+    <t>www.baidu.com</t>
+  </si>
+  <si>
+    <t>loc.map.baidu.com</t>
+  </si>
+  <si>
+    <t>api.map.baidu.com</t>
+  </si>
+  <si>
+    <t>m.baidu.com</t>
+  </si>
+  <si>
+    <t>hm.baidu.com</t>
+  </si>
+  <si>
+    <t>mbd.baidu.com</t>
+  </si>
+  <si>
+    <t>r6.mo.baidu.com</t>
   </si>
 </sst>
 </file>
@@ -2968,10 +2989,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B804"/>
+  <dimension ref="A1:B811"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView tabSelected="1" topLeftCell="A766" workbookViewId="0">
+      <selection activeCell="J787" sqref="J787"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9408,6 +9429,62 @@
         <v>872</v>
       </c>
     </row>
+    <row r="805" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A805" t="s">
+        <v>875</v>
+      </c>
+      <c r="B805" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A806" t="s">
+        <v>876</v>
+      </c>
+      <c r="B806" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A807" t="s">
+        <v>877</v>
+      </c>
+      <c r="B807" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A808" t="s">
+        <v>878</v>
+      </c>
+      <c r="B808" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A809" t="s">
+        <v>879</v>
+      </c>
+      <c r="B809" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A810" t="s">
+        <v>880</v>
+      </c>
+      <c r="B810" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A811" t="s">
+        <v>881</v>
+      </c>
+      <c r="B811" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
